--- a/dataset_excel/dentro_rotonda_test.xlsx
+++ b/dataset_excel/dentro_rotonda_test.xlsx
@@ -14,11 +14,24 @@
     <sheet name="Borja_5" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Borja_6" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Borja_7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Javi_1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Javi_2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Javi_3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Javi_4" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Javi_5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Caco_1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Caco_2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Caco_3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Caco_4" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Caco_5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Caco_6" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Caco_7" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Caco_8" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Javi_1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Javi_10" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Javi_2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Javi_3" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Javi_4" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Javi_5" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Javi_6" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Javi_7" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Javi_8" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Javi_9" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,7 +541,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -578,7 +591,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -628,7 +641,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -678,7 +691,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -728,7 +741,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -778,7 +791,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -828,7 +841,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -878,7 +891,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -928,7 +941,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -972,6 +985,1670 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1957182884216309</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-8.736855506896973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-26.95649147033691</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.00177679059561342</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7402968406677246</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2084176689386368</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-9.998876571655273</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-22.80402755737305</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001573772402480245</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>giro izquierda rotonda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4620414674282074</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-15.39384651184082</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-15.26520729064941</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001621837611310184</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.368315726518631</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>43</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-20.95921325683594</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-7.058147430419922</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.001841983757913113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7271652221679688</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>44</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19.57563018798828</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.485922813415527</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.001778316451236606</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3844383955001831</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.1465735733509064</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43</v>
+      </c>
+      <c r="L7" t="n">
+        <v>19.7765998840332</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-7.19256591796875</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001916065230034292</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2796191573143005</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.05854105204343796</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.46681213378906</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-14.6083517074585</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.002125415718182921</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6558634638786316</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.06250572204589844</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>38</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.9213399887085</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-34.34526443481445</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.00170900346711278</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sigo recto</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.09303539991378784</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>43</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9.720303535461426</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-41.79500579833984</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.001697521191090345</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6114190220832825</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02058845013380051</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>47</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8.383475303649902</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-50.03433609008789</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.001722583780065179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4050780832767487</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-6.568102836608887</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-31.84853935241699</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001405124668963253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7131115794181824</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2489291876554489</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-8.000955581665039</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-24.61830520629883</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001604213728569448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2850536406040192</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-17.965087890625</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-12.94511604309082</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001782779698260128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03046547248959541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-7.293137073516846</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-34.35259628295898</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.00176603312138468</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.08299248665571213</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-8.89764404296875</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-27.15318489074707</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001717586535960436</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2412536889314651</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>38</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-12.88592052459717</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-19.79437255859375</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001735362922772765</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5637196898460388</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-21.08345603942871</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2.517086029052734</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.001879749237559736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7715815305709839</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>32</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-16.63599014282227</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.20130252838135</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.002073078183457255</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2796191573143005</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>27</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-14.00700569152832</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14.32025718688965</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.002015819540247321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gira derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4353832602500916</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>26</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-7.381232738494873</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-35.75823974609375</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001935787149704993</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente izquierdo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.03233805298805237</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-8.70897102355957</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-27.65143775939941</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001752757932990789</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2667447626590729</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>35</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-12.65599250793457</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-19.96142578125</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00173948286101222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5562611818313599</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>52</v>
+      </c>
+      <c r="L5" t="n">
+        <v>19.17863845825195</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.59606409072876</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.001814136514440179</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>intermitente derecho</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7999999523162842</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>47</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11.23703861236572</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-14.80431365966797</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.002233867533504963</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>gira derecha</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4722926616668701</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>37</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.468945980072021</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-20.60627365112305</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.002411327324807644</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.5040216445922852</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>37</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.231120586395264</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-25.40747451782227</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.001965656178072095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1060,25 +2737,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>acelero</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>T-ON</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2559323012828827</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3502582907676697</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1095,40 +2772,40 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>-7.609490871429443</v>
+        <v>-6.272570133209229</v>
       </c>
       <c r="M2" t="n">
-        <v>-30.23891067504883</v>
+        <v>-33.06339645385742</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001647472381591797</v>
+        <v>0.001576366368681192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.8954657316207886</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1214323714375496</v>
+        <v>0.1204790771007538</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1145,47 +2822,47 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L3" t="n">
-        <v>-7.726990222930908</v>
+        <v>-7.362459659576416</v>
       </c>
       <c r="M3" t="n">
-        <v>-29.46682357788086</v>
+        <v>-27.23179817199707</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001298618270084262</v>
+        <v>0.001471233321353793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9977864027023315</v>
+        <v>0.9351054430007935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01472995802760124</v>
+        <v>0.1481345891952515</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -1195,40 +2872,40 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" t="n">
-        <v>-12.06430912017822</v>
+        <v>-10.51638126373291</v>
       </c>
       <c r="M4" t="n">
-        <v>-18.06827545166016</v>
+        <v>-20.90113639831543</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00132749555632472</v>
+        <v>0.001409854856319726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>gira izquierda</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3882634043693542</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4721073806285858</v>
+        <v>0.6327950358390808</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1245,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L5" t="n">
-        <v>-19.5884952545166</v>
+        <v>-14.30758857727051</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.721668720245361</v>
+        <v>-16.27779960632324</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002086505759507418</v>
+        <v>0.001466922694817185</v>
       </c>
     </row>
     <row r="6">
@@ -1269,16 +2946,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3959591090679169</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.09774307161569595</v>
+        <v>0.1825698763132095</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1295,16 +2972,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L6" t="n">
-        <v>-18.158935546875</v>
+        <v>-21.64408874511719</v>
       </c>
       <c r="M6" t="n">
-        <v>7.224797248840332</v>
+        <v>-6.776158809661865</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001883907243609428</v>
+        <v>0.002140636323019862</v>
       </c>
     </row>
     <row r="7">
@@ -1319,7 +2996,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1345,16 +3022,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1233608946204185</v>
+        <v>-19.51577186584473</v>
       </c>
       <c r="M7" t="n">
-        <v>19.88681221008301</v>
+        <v>4.441338062286377</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00177396775688976</v>
+        <v>0.002033748663961887</v>
       </c>
     </row>
     <row r="8">
@@ -1369,16 +3046,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5371202230453491</v>
+        <v>0.2134239226579666</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1094534173607826</v>
+        <v>-0.01659377105534077</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1395,16 +3072,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L8" t="n">
-        <v>9.541423797607422</v>
+        <v>-15.78351974487305</v>
       </c>
       <c r="M8" t="n">
-        <v>16.5457763671875</v>
+        <v>11.21307182312012</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001802883110940456</v>
+        <v>0.001979961292818189</v>
       </c>
     </row>
     <row r="9">
@@ -1419,7 +3096,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1428,7 +3105,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1445,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L9" t="n">
-        <v>13.30666732788086</v>
+        <v>-13.74747657775879</v>
       </c>
       <c r="M9" t="n">
-        <v>13.47765827178955</v>
+        <v>14.58247566223145</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001807994791306555</v>
+        <v>0.001894817338325083</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +3139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1560,16 +3237,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2727921009063721</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02569305524230003</v>
+        <v>0.2634351253509521</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1586,16 +3263,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.439136028289795</v>
+        <v>-6.17384147644043</v>
       </c>
       <c r="M2" t="n">
-        <v>-39.51559829711914</v>
+        <v>-36.63875961303711</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001947879791259766</v>
+        <v>0.001976909581571817</v>
       </c>
     </row>
     <row r="3">
@@ -1610,16 +3287,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.6358579397201538</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002258062362670898</v>
+        <v>0.0844421312212944</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1636,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L3" t="n">
-        <v>-7.226675987243652</v>
+        <v>-8.981756210327148</v>
       </c>
       <c r="M3" t="n">
-        <v>-33.50397491455078</v>
+        <v>-25.18560981750488</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001365489908494055</v>
+        <v>0.001666583935730159</v>
       </c>
     </row>
     <row r="4">
@@ -1660,23 +3337,23 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.6114190220832825</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06996823847293854</v>
+        <v>0.07958699762821198</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -1686,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>-9.954057693481445</v>
+        <v>-12.97269248962402</v>
       </c>
       <c r="M4" t="n">
-        <v>-24.36136817932129</v>
+        <v>-19.34039688110352</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001399631495587528</v>
+        <v>0.001679019886069</v>
       </c>
     </row>
     <row r="5">
@@ -1710,16 +3387,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4598324596881866</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1005920469760895</v>
+        <v>-0.06278150528669357</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1736,16 +3413,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L5" t="n">
-        <v>-20.7217960357666</v>
+        <v>-22.14925575256348</v>
       </c>
       <c r="M5" t="n">
-        <v>1.157667994499207</v>
+        <v>-6.368495464324951</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001970577286556363</v>
+        <v>0.001768398215062916</v>
       </c>
     </row>
     <row r="6">
@@ -1760,16 +3437,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4639680683612823</v>
+        <v>0.4934229850769043</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1508980989456177</v>
+        <v>-0.1240230575203896</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1786,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L6" t="n">
-        <v>-12.71437358856201</v>
+        <v>-7.866675853729248</v>
       </c>
       <c r="M6" t="n">
-        <v>15.06105709075928</v>
+        <v>20.88501739501953</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001847324310801923</v>
+        <v>0.001818485208787024</v>
       </c>
     </row>
     <row r="7">
@@ -1810,7 +3487,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1819,14 +3496,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.800000011920929</v>
+        <v>0.4866627156734467</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -1836,22 +3513,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L7" t="n">
-        <v>-6.327820301055908</v>
+        <v>6.484433650970459</v>
       </c>
       <c r="M7" t="n">
-        <v>18.57058525085449</v>
+        <v>20.48214149475098</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001850070897489786</v>
+        <v>0.001909389509819448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>gira derecha</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1860,7 +3537,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1869,7 +3546,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1505393087863922</v>
+        <v>0.3440003991127014</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1886,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L8" t="n">
-        <v>1.900376200675964</v>
+        <v>13.53121280670166</v>
       </c>
       <c r="M8" t="n">
-        <v>19.70183944702148</v>
+        <v>16.32844924926758</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001849155407398939</v>
+        <v>0.002100925426930189</v>
       </c>
     </row>
     <row r="9">
@@ -1910,16 +3587,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.2198433727025986</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.28935706615448</v>
+        <v>0.07391879707574844</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1936,16 +3613,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" t="n">
-        <v>9.319461822509766</v>
+        <v>17.99380302429199</v>
       </c>
       <c r="M9" t="n">
-        <v>17.84906005859375</v>
+        <v>11.21696472167969</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001928768120706081</v>
+        <v>0.002130870707333088</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +3630,839 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.03341642022132874</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-10.48390483856201</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-24.61585807800293</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001601123716682196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7463088035583496</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>45</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-12.42118263244629</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-18.62558746337891</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001362209324724972</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.04029076173901558</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>61</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-16.76838302612305</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-9.434930801391602</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001363811432383955</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5680026412010193</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>47</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-13.72001266479492</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12.87589931488037</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.002149677136912942</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-6.653746604919434</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17.73668098449707</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.001948413788340986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2969964742660522</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>44</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.439836859703064</v>
+      </c>
+      <c r="M7" t="n">
+        <v>19.02077484130859</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001812877599149942</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.04690677300095558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-6.668121337890625</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-40.07714080810547</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001635417924262583</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.07662570476531982</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>25</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-7.072994232177734</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-36.80922317504883</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001633281703107059</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1724293529987335</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-8.575874328613281</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-26.7386417388916</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001519794459454715</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-17.549560546875</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-9.892138481140137</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.002117900876328349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5506236553192139</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1410684287548065</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>30</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-19.6568431854248</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-5.477761268615723</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.001813297276385128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5106658339500427</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.2234535068273544</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>35</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-20.35999488830566</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.206693649291992</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001787166576832533</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.2956543862819672</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-18.56706428527832</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9.291922569274902</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.001732578268274665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2042,25 +4551,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>pongo intermitente izquierda</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8500000238418579</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08594521135091782</v>
+        <v>0.03639263287186623</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2077,31 +4586,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L2" t="n">
-        <v>-7.668683528900146</v>
+        <v>-12.01088714599609</v>
       </c>
       <c r="M2" t="n">
-        <v>-32.85787200927734</v>
+        <v>-18.64371490478516</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001588001265190542</v>
+        <v>0.002090396825224161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>intermitente izquierdo</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2110,14 +4619,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04417410492897034</v>
+        <v>0.7700908184051514</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -2127,47 +4636,47 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L3" t="n">
-        <v>-8.065539360046387</v>
+        <v>-13.68394374847412</v>
       </c>
       <c r="M3" t="n">
-        <v>-30.15353775024414</v>
+        <v>-16.17480278015137</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001345157623291016</v>
+        <v>0.002055225428193808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.4849154055118561</v>
       </c>
       <c r="F4" t="n">
-        <v>0.800000011920929</v>
+        <v>-0.3875010311603546</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -2177,16 +4686,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>-11.54192638397217</v>
+        <v>-17.47516441345215</v>
       </c>
       <c r="M4" t="n">
-        <v>-17.29285430908203</v>
+        <v>-10.13842105865479</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001791629707440734</v>
+        <v>0.001791515271179378</v>
       </c>
     </row>
     <row r="5">
@@ -2201,16 +4710,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.5735567212104797</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0.1046696156263351</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2227,16 +4736,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L5" t="n">
-        <v>-14.99660205841064</v>
+        <v>-17.62931632995605</v>
       </c>
       <c r="M5" t="n">
-        <v>-11.49401473999023</v>
+        <v>8.653385162353516</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002177219372242689</v>
+        <v>0.001738223945721984</v>
       </c>
     </row>
     <row r="6">
@@ -2251,7 +4760,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2260,7 +4769,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03321350365877151</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2277,22 +4786,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L6" t="n">
-        <v>-14.30785083770752</v>
+        <v>-7.969676494598389</v>
       </c>
       <c r="M6" t="n">
-        <v>13.58022689819336</v>
+        <v>18.79161071777344</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00162786478176713</v>
+        <v>0.001881313277408481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>intermitente derecho</t>
+          <t>pongo intermitente derecha</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2301,23 +4810,23 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7402968406677246</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1721760630607605</v>
+        <v>-0.03155277669429779</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -2327,16 +4836,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="L7" t="n">
-        <v>-7.40842342376709</v>
+        <v>3.20716118812561</v>
       </c>
       <c r="M7" t="n">
-        <v>18.8234920501709</v>
+        <v>19.79253005981445</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001645336160436273</v>
+        <v>0.00184911722317338</v>
       </c>
     </row>
     <row r="8">
@@ -2351,16 +4860,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7184878587722778</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1729869693517685</v>
+        <v>-0.08788592368364334</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2377,16 +4886,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L8" t="n">
-        <v>2.018188238143921</v>
+        <v>11.73307514190674</v>
       </c>
       <c r="M8" t="n">
-        <v>20.37089729309082</v>
+        <v>15.4570951461792</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001681804656982422</v>
+        <v>0.001840839395299554</v>
       </c>
     </row>
     <row r="9">
@@ -2401,16 +4910,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.262641042470932</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1882605105638504</v>
+        <v>-0.2232709527015686</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2427,16 +4936,507 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="L9" t="n">
-        <v>9.619074821472168</v>
+        <v>16.40233421325684</v>
       </c>
       <c r="M9" t="n">
-        <v>17.82783126831055</v>
+        <v>11.71417236328125</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001866130740381777</v>
+        <v>0.001902294112369418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2559323012828827</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-7.609490871429443</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-30.23891067504883</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001647472381591797</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1214323714375496</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-7.726990222930908</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-29.46682357788086</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001298618270084262</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9977864027023315</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01472995802760124</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-12.06430912017822</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-18.06827545166016</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00132749555632472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3882634043693542</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.4721073806285858</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-19.5884952545166</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1.721668720245361</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.002086505759507418</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3959591090679169</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.09774307161569595</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>36</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-18.158935546875</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.224797248840332</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.001883907243609428</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>42</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1233608946204185</v>
+      </c>
+      <c r="M7" t="n">
+        <v>19.88681221008301</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.00177396775688976</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5371202230453491</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1094534173607826</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>44</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9.541423797607422</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16.5457763671875</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.001802883110940456</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>45</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13.30666732788086</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13.47765827178955</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.001807994791306555</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +5542,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2592,7 +5592,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2642,7 +5642,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2692,7 +5692,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2742,7 +5742,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2792,7 +5792,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -2842,7 +5842,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -2892,7 +5892,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2942,7 +5942,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2992,7 +5992,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3042,7 +6042,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3092,7 +6092,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3128,6 +6128,2752 @@
       </c>
       <c r="N13" t="n">
         <v>0.001581630669534206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2727921009063721</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02569305524230003</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>18</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-6.439136028289795</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-39.51559829711914</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001947879791259766</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.002258062362670898</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-7.226675987243652</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-33.50397491455078</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001365489908494055</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06996823847293854</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-9.954057693481445</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-24.36136817932129</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001399631495587528</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4598324596881866</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1005920469760895</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-20.7217960357666</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.157667994499207</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.001970577286556363</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4639680683612823</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1508980989456177</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>38</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-12.71437358856201</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15.06105709075928</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.001847324310801923</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>38</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-6.327820301055908</v>
+      </c>
+      <c r="M7" t="n">
+        <v>18.57058525085449</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001850070897489786</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1505393087863922</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>39</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.900376200675964</v>
+      </c>
+      <c r="M8" t="n">
+        <v>19.70183944702148</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.001849155407398939</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.28935706615448</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>38</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.319461822509766</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17.84906005859375</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.001928768120706081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.08594521135091782</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-7.668683528900146</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-32.85787200927734</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001588001265190542</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente izquierdo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.04417410492897034</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-8.065539360046387</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-30.15353775024414</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001345157623291016</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-11.54192638397217</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-17.29285430908203</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001791629707440734</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-14.99660205841064</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-11.49401473999023</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.002177219372242689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03321350365877151</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>39</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-14.30785083770752</v>
+      </c>
+      <c r="M6" t="n">
+        <v>13.58022689819336</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.00162786478176713</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>intermitente derecho</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7402968406677246</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.1721760630607605</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-7.40842342376709</v>
+      </c>
+      <c r="M7" t="n">
+        <v>18.8234920501709</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001645336160436273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7184878587722778</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1729869693517685</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>53</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.018188238143921</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20.37089729309082</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.001681804656982422</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.262641042470932</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1882605105638504</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>53</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.619074821472168</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17.82783126831055</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.001866130740381777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02017961256206036</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-6.582223415374756</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-37.75758743286133</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001689662924036384</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente izquierdo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02259934134781361</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-6.626899242401123</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-37.4244270324707</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001302776276133955</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03896473720669746</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>34</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-7.571831703186035</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-31.08913803100586</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001301059732213616</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4200171232223511</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>50</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-10.12677574157715</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-22.49588584899902</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.001482524792663753</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pongo intermitente derecho</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04999995231628418</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>23</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-20.53985214233398</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7286361455917358</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.002110958099365234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01458738744258881</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.08057253807783127</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-19.83660888671875</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.655119657516479</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001833248068578541</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.171032726764679</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-17.57027244567871</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8.40400218963623</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.00163152685854584</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01598099991679192</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-6.567257404327393</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-37.08819198608398</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001796665135771036</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.02928037941455841</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-7.295948505401611</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-32.84867477416992</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001461543957702816</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7193111777305603</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-11.20461559295654</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-20.00529670715332</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001992854988202453</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05735496059060097</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>39</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-13.43575382232666</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-16.09528350830078</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.002162341959774494</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>27</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-18.98644828796387</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-6.994636058807373</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.001928043318912387</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3543706238269806</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.2355739176273346</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>63</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-4.998819351196289</v>
+      </c>
+      <c r="M7" t="n">
+        <v>19.86908340454102</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.00181772222276777</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.325208991765976</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1391278654336929</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>47</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14.19852638244629</v>
+      </c>
+      <c r="M8" t="n">
+        <v>12.79707050323486</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.002024478977546096</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1306879967451096</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1657578945159912</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>39</v>
+      </c>
+      <c r="L9" t="n">
+        <v>18.08421325683594</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.274359703063965</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.002111987909302115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9835022687911987</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13.29389762878418</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-13.19249153137207</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.001459674793295562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01850748807191849</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-7.048802375793457</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-36.2669563293457</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001330852508544922</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03049049712717533</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>23</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-7.398098468780518</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-32.91838455200195</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00151483528316021</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4330384433269501</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-12.30206108093262</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-18.99560928344727</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00144617073237896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>salida</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coche_cerca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>throttle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>brake</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>light_state</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hand_brake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>loc_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>loc_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>loc_z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.2538861930370331</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-7.374916076660156</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-36.52316665649414</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001726665417663753</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.3561001420021057</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-8.384727478027344</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-32.15097427368164</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00132352823857218</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5610677003860474</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-11.87734222412109</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-20.21049308776855</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001590900355949998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6651404500007629</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>58</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-14.07845783233643</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-15.97092342376709</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.00171094888355583</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-19.60117721557617</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.188936710357666</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.002044391585513949</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.1056757122278214</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>48</v>
+      </c>
+      <c r="L7" t="n">
+        <v>18.01658058166504</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.276134490966797</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001942119561135769</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2134239226579666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1348220705986023</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>44</v>
+      </c>
+      <c r="L8" t="n">
+        <v>18.98239135742188</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.447467803955078</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.002055377932265401</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1484721601009369</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1117135137319565</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>34</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16.76653480529785</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-8.148841857910156</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.002056255238130689</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.2330744862556458</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35</v>
+      </c>
+      <c r="L10" t="n">
+        <v>14.72302722930908</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-11.73766231536865</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.001780528924427927</v>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +8979,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3283,7 +9029,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3333,7 +9079,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3383,7 +9129,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3433,7 +9179,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3483,7 +9229,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3533,7 +9279,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3583,7 +9329,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3724,7 +9470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3774,7 +9520,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3824,7 +9570,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3874,7 +9620,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3924,7 +9670,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3974,7 +9720,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4024,7 +9770,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4074,7 +9820,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4215,7 +9961,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4265,7 +10011,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4315,7 +10061,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4365,7 +10111,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4415,7 +10161,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4465,7 +10211,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4515,7 +10261,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4565,7 +10311,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4615,7 +10361,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4756,7 +10502,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4806,7 +10552,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4856,7 +10602,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4906,7 +10652,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4956,7 +10702,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5006,7 +10752,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5056,7 +10802,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5106,7 +10852,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5247,7 +10993,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5297,7 +11043,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -5347,7 +11093,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5397,7 +11143,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5447,7 +11193,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5497,7 +11243,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5547,7 +11293,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5597,7 +11343,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5647,7 +11393,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5697,7 +11443,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -5746,7 +11492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5829,16 +11575,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5847,14 +11593,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03341642022132874</v>
+        <v>-0.009294554591178894</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -5864,31 +11610,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L2" t="n">
-        <v>-10.48390483856201</v>
+        <v>-8.104494094848633</v>
       </c>
       <c r="M2" t="n">
-        <v>-24.61585807800293</v>
+        <v>-30.26421737670898</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001601123716682196</v>
+        <v>0.001868266961537302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>acelero</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T-ON</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -5897,14 +11643,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7463088035583496</v>
+        <v>0.05754026025533676</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -5914,47 +11660,47 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
-        <v>-12.42118263244629</v>
+        <v>-9.203333854675293</v>
       </c>
       <c r="M3" t="n">
-        <v>-18.62558746337891</v>
+        <v>-26.05705070495605</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001362209324724972</v>
+        <v>0.001798190991394222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04029076173901558</v>
+        <v>-0.4601629376411438</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -5964,166 +11710,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="L4" t="n">
-        <v>-16.76838302612305</v>
+        <v>-20.06027984619141</v>
       </c>
       <c r="M4" t="n">
-        <v>-9.434930801391602</v>
+        <v>-12.46189308166504</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001363811432383955</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>intermitente derecha</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RB-ON</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5680026412010193</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-13.72001266479492</v>
-      </c>
-      <c r="M5" t="n">
-        <v>12.87589931488037</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.002149677136912942</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>giro derecha</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TURN-R</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>43</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-6.653746604919434</v>
-      </c>
-      <c r="M6" t="n">
-        <v>17.73668098449707</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.001948413788340986</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>salgo rotonda</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RND-EXIT</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2969964742660522</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Right_Blinker</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>44</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.439836859703064</v>
-      </c>
-      <c r="M7" t="n">
-        <v>19.02077484130859</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.001812877599149942</v>
+        <v>0.001723728142678738</v>
       </c>
     </row>
   </sheetData>
@@ -6137,7 +11733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6220,25 +11816,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pongo intermitente izquierda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03639263287186623</v>
+        <v>0.1694657355546951</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6255,31 +11851,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>-12.01088714599609</v>
+        <v>-7.378941535949707</v>
       </c>
       <c r="M2" t="n">
-        <v>-18.64371490478516</v>
+        <v>-32.11928558349609</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002090396825224161</v>
+        <v>0.001213169074617326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6288,14 +11884,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7700908184051514</v>
+        <v>0.3455844521522522</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -6305,40 +11901,40 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L3" t="n">
-        <v>-13.68394374847412</v>
+        <v>-7.595675468444824</v>
       </c>
       <c r="M3" t="n">
-        <v>-16.17480278015137</v>
+        <v>-28.97849273681641</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002055225428193808</v>
+        <v>0.001494770054705441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4849154055118561</v>
+        <v>0.1605124622583389</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3875010311603546</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6355,40 +11951,40 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="L4" t="n">
-        <v>-17.47516441345215</v>
+        <v>-14.58862018585205</v>
       </c>
       <c r="M4" t="n">
-        <v>-10.13842105865479</v>
+        <v>-16.81591606140137</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001791515271179378</v>
+        <v>0.001739101368002594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5735567212104797</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1046696156263351</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6405,31 +12001,31 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L5" t="n">
-        <v>-17.62931632995605</v>
+        <v>-21.41915702819824</v>
       </c>
       <c r="M5" t="n">
-        <v>8.653385162353516</v>
+        <v>-4.920458316802979</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001738223945721984</v>
+        <v>0.001849193475209177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -6438,14 +12034,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.800000011920929</v>
+        <v>-0.2171227037906647</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -6455,47 +12051,47 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L6" t="n">
-        <v>-7.969676494598389</v>
+        <v>-18.05343818664551</v>
       </c>
       <c r="M6" t="n">
-        <v>18.79161071777344</v>
+        <v>10.28012752532959</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001881313277408481</v>
+        <v>0.001997852232307196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pongo intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8500000238418579</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03155277669429779</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -6505,31 +12101,31 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L7" t="n">
-        <v>3.20716118812561</v>
+        <v>-13.66816520690918</v>
       </c>
       <c r="M7" t="n">
-        <v>19.79253005981445</v>
+        <v>16.12824821472168</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00184911722317338</v>
+        <v>0.00210821139626205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -6538,7 +12134,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08788592368364334</v>
+        <v>-0.800000011920929</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6555,66 +12151,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L8" t="n">
-        <v>11.73307514190674</v>
+        <v>-12.22142887115479</v>
       </c>
       <c r="M8" t="n">
-        <v>15.4570951461792</v>
+        <v>18.30045890808105</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001840839395299554</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>salgo rotonda</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RND-EXIT</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.2232709527015686</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Right_Blinker</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>35</v>
-      </c>
-      <c r="L9" t="n">
-        <v>16.40233421325684</v>
-      </c>
-      <c r="M9" t="n">
-        <v>11.71417236328125</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.001902294112369418</v>
+        <v>0.002185687888413668</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_excel/dentro_rotonda_test.xlsx
+++ b/dataset_excel/dentro_rotonda_test.xlsx
@@ -990,7 +990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1423,12 +1423,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1438,17 +1438,17 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6558634638786316</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.06250572204589844</v>
+        <v>-0.800000011920929</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -1458,116 +1458,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L9" t="n">
-        <v>10.9213399887085</v>
+        <v>11.56580257415771</v>
       </c>
       <c r="M9" t="n">
-        <v>-34.34526443481445</v>
+        <v>-19.83598136901855</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00170900346711278</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>sigo recto</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>STR</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.09303539991378784</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>43</v>
-      </c>
-      <c r="L10" t="n">
-        <v>9.720303535461426</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-41.79500579833984</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.001697521191090345</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>acelero</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>T-ON</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6114190220832825</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.02058845013380051</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>47</v>
-      </c>
-      <c r="L11" t="n">
-        <v>8.383475303649902</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-50.03433609008789</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.001722583780065179</v>
+        <v>0.002488384256139398</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,12 +1955,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2070,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.5020059943199158</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5637196898460388</v>
+        <v>-0.2378262132406235</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2093,24 +1993,24 @@
         <v>41</v>
       </c>
       <c r="L5" t="n">
-        <v>-21.08345603942871</v>
+        <v>-20.16416549682617</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.517086029052734</v>
+        <v>-7.858899593353271</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001879749237559736</v>
+        <v>0.001834316179156303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2123,14 +2023,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7715815305709839</v>
+        <v>0.5637196898460388</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -2140,27 +2040,27 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L6" t="n">
-        <v>-16.63599014282227</v>
+        <v>-21.08345603942871</v>
       </c>
       <c r="M6" t="n">
-        <v>10.20130252838135</v>
+        <v>-2.517086029052734</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002073078183457255</v>
+        <v>0.001879749237559736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2170,35 +2070,85 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7715815305709839</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-16.63599014282227</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10.20130252838135</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.002073078183457255</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.2796191573143005</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>27</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>-14.00700569152832</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>14.32025718688965</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N8" t="n">
         <v>0.002015819540247321</v>
       </c>
     </row>
@@ -2546,7 +2496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gira derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2887,7 +2837,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gira izquierda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3528,7 +3478,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gira derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
